--- a/storage/EDCS_SUMMARY.xlsx
+++ b/storage/EDCS_SUMMARY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCB10E1-1FA7-4A20-B458-188CCB748715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2656B37-EE5D-414D-95F0-486FA1229512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,6 +529,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -584,30 +608,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -866,6 +866,56 @@
         <a:xfrm>
           <a:off x="1104900" y="7239000"/>
           <a:ext cx="1070744" cy="848577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>8411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98AC134F-1869-9FF3-72B9-F5B52AC825ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="5677691"/>
+          <a:ext cx="1988820" cy="977650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,8 +1193,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,222 +1206,222 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="33"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="33"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="41"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="36"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="44"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="39"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="47"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="43" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="43" t="s">
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="45"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="26"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="48"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="29"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
@@ -1411,11 +1461,11 @@
       <c r="AI12" s="17"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+      <c r="A13" s="30">
         <v>0</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
@@ -1433,11 +1483,11 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="49">
+      <c r="S13" s="30">
         <v>0</v>
       </c>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
       <c r="V13" t="s">
         <v>22</v>
       </c>
@@ -1456,11 +1506,11 @@
       <c r="AI13" s="17"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="49">
+      <c r="A14" s="30">
         <v>0</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -1478,11 +1528,11 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="49">
+      <c r="S14" s="30">
         <v>0</v>
       </c>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
       <c r="V14" t="s">
         <v>23</v>
       </c>
@@ -1501,11 +1551,11 @@
       <c r="AI14" s="17"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="49">
+      <c r="A15" s="30">
         <v>0</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -1523,11 +1573,11 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="49">
+      <c r="S15" s="30">
         <v>0</v>
       </c>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
       <c r="V15" t="s">
         <v>24</v>
       </c>
@@ -1546,11 +1596,11 @@
       <c r="AI15" s="17"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="49">
+      <c r="A16" s="30">
         <v>0</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -1568,11 +1618,11 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="49">
+      <c r="S16" s="30">
         <v>0</v>
       </c>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
       <c r="V16" t="s">
         <v>25</v>
       </c>
@@ -1591,11 +1641,11 @@
       <c r="AI16" s="17"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+      <c r="A17" s="30">
         <v>0</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -1632,11 +1682,11 @@
       <c r="AI17" s="17"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
+      <c r="A18" s="30">
         <v>0</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" t="s">
         <v>14</v>
       </c>
@@ -1710,86 +1760,86 @@
       <c r="AI19" s="17"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="43" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="43" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="43" t="s">
+      <c r="T20" s="25"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="45"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="26"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="48"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="29"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="16"/>
@@ -1829,11 +1879,11 @@
       <c r="AI22" s="17"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="49">
+      <c r="A23" s="30">
         <v>0</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" t="s">
         <v>16</v>
       </c>
@@ -1851,11 +1901,11 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="17"/>
-      <c r="S23" s="49">
+      <c r="S23" s="30">
         <v>0</v>
       </c>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
       <c r="V23" t="s">
         <v>27</v>
       </c>
@@ -1874,11 +1924,11 @@
       <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="49">
+      <c r="A24" s="30">
         <v>0</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" t="s">
         <v>17</v>
       </c>
@@ -1896,11 +1946,11 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="49">
+      <c r="S24" s="30">
         <v>0</v>
       </c>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
       <c r="V24" s="21" t="s">
         <v>28</v>
       </c>
@@ -1919,11 +1969,11 @@
       <c r="AI24" s="17"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="49">
+      <c r="A25" s="30">
         <v>0</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" t="s">
         <v>18</v>
       </c>
@@ -1941,11 +1991,11 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="17"/>
-      <c r="S25" s="49">
+      <c r="S25" s="30">
         <v>0</v>
       </c>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
       <c r="V25" t="s">
         <v>31</v>
       </c>
@@ -1964,11 +2014,11 @@
       <c r="AI25" s="17"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="49">
+      <c r="A26" s="30">
         <v>0</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" t="s">
         <v>20</v>
       </c>
@@ -1986,11 +2036,11 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="49">
+      <c r="S26" s="30">
         <v>0</v>
       </c>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
       <c r="V26" t="s">
         <v>29</v>
       </c>
@@ -2009,11 +2059,11 @@
       <c r="AI26" s="17"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="49">
+      <c r="A27" s="30">
         <v>0</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -2031,11 +2081,11 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="49">
+      <c r="S27" s="30">
         <v>0</v>
       </c>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
       <c r="V27" t="s">
         <v>30</v>
       </c>
@@ -2305,154 +2355,154 @@
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="24"/>
-      <c r="AI48" s="24"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="24"/>
-      <c r="AH49" s="24"/>
-      <c r="AI49" s="24"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="24"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="32"/>
     </row>
     <row r="51" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
@@ -2466,24 +2516,6 @@
     <sortCondition ref="V23"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="V20:AI21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="S20:U21"/>
     <mergeCell ref="A48:AI51"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI5"/>
@@ -2500,6 +2532,24 @@
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="D10:R11"/>
     <mergeCell ref="S10:U11"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="S20:U21"/>
+    <mergeCell ref="V20:AI21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="S25:U25"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A18">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">

--- a/storage/EDCS_SUMMARY.xlsx
+++ b/storage/EDCS_SUMMARY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27819"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2656B37-EE5D-414D-95F0-486FA1229512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C29181-CFD3-450E-BD5D-6056E0D41A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Luis P. Broas, RN, RPh, MAN, CAE</t>
   </si>
   <si>
-    <t>Nurse II-CESU Designated Head</t>
-  </si>
-  <si>
     <t>Analyn C. Barzaga</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
       </rPr>
       <t xml:space="preserve"> Every effort has been made to provide accurate and updated information, however, errors can still occur. By using the information contained in this summary report, the reader assumes all risks in connection with such use.  The City Epidemiology and Surveillance Unit of General Trias, Cavite shall not be held responsible for errors from use or reliance upon this material.</t>
     </r>
+  </si>
+  <si>
+    <t>Nurse III-CESU Designated Head</t>
   </si>
 </sst>
 </file>
@@ -529,6 +529,63 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,63 +608,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1194,236 +1194,236 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="35"/>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="27"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Y2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="38"/>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="29"/>
+      <c r="AC2" s="29"/>
+      <c r="AD2" s="29"/>
+      <c r="AE2" s="29"/>
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29"/>
+      <c r="AH2" s="29"/>
+      <c r="AI2" s="30"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="41"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="33"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="41"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="33"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="44"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AG6" s="46"/>
-      <c r="AH6" s="46"/>
-      <c r="AI6" s="47"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="38"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="39"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="49"/>
-      <c r="AC9" s="49"/>
-      <c r="AD9" s="49"/>
-      <c r="AE9" s="49"/>
-      <c r="AF9" s="49"/>
-      <c r="AG9" s="49"/>
-      <c r="AH9" s="49"/>
-      <c r="AI9" s="50"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41"/>
+      <c r="AD9" s="41"/>
+      <c r="AE9" s="41"/>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41"/>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="42"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="24" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="24" t="s">
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="24" t="s">
+      <c r="T10" s="44"/>
+      <c r="U10" s="45"/>
+      <c r="V10" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="25"/>
-      <c r="AD10" s="25"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="25"/>
-      <c r="AG10" s="25"/>
-      <c r="AH10" s="25"/>
-      <c r="AI10" s="26"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="28"/>
-      <c r="AC11" s="28"/>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="29"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
+      <c r="AA10" s="44"/>
+      <c r="AB10" s="44"/>
+      <c r="AC10" s="44"/>
+      <c r="AD10" s="44"/>
+      <c r="AE10" s="44"/>
+      <c r="AF10" s="44"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="45"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="48"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1460,12 +1460,12 @@
       <c r="AH12" s="16"/>
       <c r="AI12" s="17"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
         <v>0</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
@@ -1483,11 +1483,11 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="30">
+      <c r="S13" s="49">
         <v>0</v>
       </c>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
       <c r="V13" t="s">
         <v>22</v>
       </c>
@@ -1505,12 +1505,12 @@
       <c r="AH13" s="16"/>
       <c r="AI13" s="17"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
         <v>0</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -1528,11 +1528,11 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="30">
+      <c r="S14" s="49">
         <v>0</v>
       </c>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
       <c r="V14" t="s">
         <v>23</v>
       </c>
@@ -1550,12 +1550,12 @@
       <c r="AH14" s="16"/>
       <c r="AI14" s="17"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
         <v>0</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -1573,11 +1573,11 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="30">
+      <c r="S15" s="49">
         <v>0</v>
       </c>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
       <c r="V15" t="s">
         <v>24</v>
       </c>
@@ -1595,12 +1595,12 @@
       <c r="AH15" s="16"/>
       <c r="AI15" s="17"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
         <v>0</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -1618,11 +1618,11 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="30">
+      <c r="S16" s="49">
         <v>0</v>
       </c>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
       <c r="V16" t="s">
         <v>25</v>
       </c>
@@ -1640,12 +1640,12 @@
       <c r="AH16" s="16"/>
       <c r="AI16" s="17"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A17" s="49">
         <v>0</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -1681,12 +1681,12 @@
       <c r="AH17" s="16"/>
       <c r="AI17" s="17"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
         <v>0</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
       <c r="D18" t="s">
         <v>14</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="AH18" s="16"/>
       <c r="AI18" s="17"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1759,89 +1759,89 @@
       <c r="AH19" s="16"/>
       <c r="AI19" s="17"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="24" t="s">
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="25"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="24" t="s">
+      <c r="T20" s="44"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25"/>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25"/>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25"/>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25"/>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="26"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="29"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-      <c r="AH21" s="28"/>
-      <c r="AI21" s="29"/>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="44"/>
+      <c r="AC20" s="44"/>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="45"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="48"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -1878,12 +1878,12 @@
       <c r="AH22" s="16"/>
       <c r="AI22" s="17"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="30">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="49">
         <v>0</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
       <c r="D23" t="s">
         <v>16</v>
       </c>
@@ -1901,11 +1901,11 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="17"/>
-      <c r="S23" s="30">
+      <c r="S23" s="49">
         <v>0</v>
       </c>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
       <c r="V23" t="s">
         <v>27</v>
       </c>
@@ -1923,12 +1923,12 @@
       <c r="AH23" s="16"/>
       <c r="AI23" s="17"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="49">
         <v>0</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
       <c r="D24" t="s">
         <v>17</v>
       </c>
@@ -1946,11 +1946,11 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="30">
+      <c r="S24" s="49">
         <v>0</v>
       </c>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
       <c r="V24" s="21" t="s">
         <v>28</v>
       </c>
@@ -1968,12 +1968,12 @@
       <c r="AH24" s="16"/>
       <c r="AI24" s="17"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="49">
         <v>0</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
       <c r="D25" t="s">
         <v>18</v>
       </c>
@@ -1991,11 +1991,11 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="17"/>
-      <c r="S25" s="30">
+      <c r="S25" s="49">
         <v>0</v>
       </c>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
       <c r="V25" t="s">
         <v>31</v>
       </c>
@@ -2013,12 +2013,12 @@
       <c r="AH25" s="16"/>
       <c r="AI25" s="17"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="30">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
         <v>0</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
       <c r="D26" t="s">
         <v>20</v>
       </c>
@@ -2036,11 +2036,11 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="30">
+      <c r="S26" s="49">
         <v>0</v>
       </c>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
       <c r="V26" t="s">
         <v>29</v>
       </c>
@@ -2058,12 +2058,12 @@
       <c r="AH26" s="16"/>
       <c r="AI26" s="17"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="30">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="49">
         <v>0</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -2081,11 +2081,11 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="30">
+      <c r="S27" s="49">
         <v>0</v>
       </c>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
       <c r="V27" t="s">
         <v>30</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="AH27" s="16"/>
       <c r="AI27" s="17"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -2140,7 +2140,7 @@
       <c r="AH28" s="19"/>
       <c r="AI28" s="20"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -2177,7 +2177,7 @@
       <c r="AH29" s="16"/>
       <c r="AI29" s="16"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -2214,7 +2214,7 @@
       <c r="AH30" s="16"/>
       <c r="AI30" s="16"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="N33" s="51"/>
       <c r="O33" s="51"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -2241,7 +2241,7 @@
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>4</v>
       </c>
@@ -2250,20 +2250,20 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -2271,7 +2271,7 @@
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>5</v>
       </c>
@@ -2283,17 +2283,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -2301,7 +2301,7 @@
       <c r="E40" s="11"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -2309,7 +2309,7 @@
       <c r="E41" s="10"/>
       <c r="F41" s="22"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -2317,7 +2317,7 @@
       <c r="E42" s="11"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>6</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -2339,7 +2339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -2347,164 +2347,164 @@
       <c r="E46" s="11"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="32"/>
-      <c r="AB48" s="32"/>
-      <c r="AC48" s="32"/>
-      <c r="AD48" s="32"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="32"/>
-      <c r="AH48" s="32"/>
-      <c r="AI48" s="32"/>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-      <c r="AB49" s="32"/>
-      <c r="AC49" s="32"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="32"/>
-      <c r="AH49" s="32"/>
-      <c r="AI49" s="32"/>
-    </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A50" s="32"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-      <c r="AB50" s="32"/>
-      <c r="AC50" s="32"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
-    </row>
-    <row r="51" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-      <c r="AB51" s="32"/>
-      <c r="AC51" s="32"/>
-      <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="32"/>
-      <c r="AI51" s="32"/>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="24"/>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="24"/>
+      <c r="AA49" s="24"/>
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="24"/>
+      <c r="AD49" s="24"/>
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="24"/>
+      <c r="AG49" s="24"/>
+      <c r="AH49" s="24"/>
+      <c r="AI49" s="24"/>
+    </row>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="24"/>
+      <c r="AA50" s="24"/>
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="24"/>
+      <c r="AD50" s="24"/>
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="24"/>
+      <c r="AG50" s="24"/>
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="24"/>
+    </row>
+    <row r="51" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="24"/>
+      <c r="AA51" s="24"/>
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="24"/>
+      <c r="AD51" s="24"/>
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="24"/>
+      <c r="AG51" s="24"/>
+      <c r="AH51" s="24"/>
+      <c r="AI51" s="24"/>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2516,6 +2516,24 @@
     <sortCondition ref="V23"/>
   </sortState>
   <mergeCells count="34">
+    <mergeCell ref="V20:AI21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="S20:U21"/>
     <mergeCell ref="A48:AI51"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI5"/>
@@ -2532,24 +2550,6 @@
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="D10:R11"/>
     <mergeCell ref="S10:U11"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="S20:U21"/>
-    <mergeCell ref="V20:AI21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="S25:U25"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A18">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">

--- a/storage/EDCS_SUMMARY.xlsx
+++ b/storage/EDCS_SUMMARY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27819"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\cesu\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C29181-CFD3-450E-BD5D-6056E0D41A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27383D22-4CA6-41DC-B490-7239E683F936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,16 +152,7 @@
     <t>E-mail: cesu.gentrias@gmail.com</t>
   </si>
   <si>
-    <t>Jonathan P. Luseco, MD</t>
-  </si>
-  <si>
     <t>City Health Officer II</t>
-  </si>
-  <si>
-    <t>Luis P. Broas, RN, RPh, MAN, CAE</t>
-  </si>
-  <si>
-    <t>Analyn C. Barzaga</t>
   </si>
   <si>
     <t>Job Order Encoder</t>
@@ -191,6 +182,15 @@
   </si>
   <si>
     <t>Nurse III-CESU Designated Head</t>
+  </si>
+  <si>
+    <t>JONATHAN P. LUSECO, RN, MD</t>
+  </si>
+  <si>
+    <t>LUIS P. BROAS, RN, RPh, MAN, CAE</t>
+  </si>
+  <si>
+    <t>ANALYN C. BARZAGA</t>
   </si>
 </sst>
 </file>
@@ -529,6 +529,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -584,30 +608,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1193,8 +1193,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AI52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,222 +1206,222 @@
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Y1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="27"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="35"/>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="29"/>
-      <c r="AB2" s="29"/>
-      <c r="AC2" s="29"/>
-      <c r="AD2" s="29"/>
-      <c r="AE2" s="29"/>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29"/>
-      <c r="AH2" s="29"/>
-      <c r="AI2" s="30"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="38"/>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="33"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="40"/>
+      <c r="AH3" s="40"/>
+      <c r="AI3" s="41"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="33"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="41"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="36"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="44"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="39"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="46"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="47"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="42"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
+      <c r="AB9" s="49"/>
+      <c r="AC9" s="49"/>
+      <c r="AD9" s="49"/>
+      <c r="AE9" s="49"/>
+      <c r="AF9" s="49"/>
+      <c r="AG9" s="49"/>
+      <c r="AH9" s="49"/>
+      <c r="AI9" s="50"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="43" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="43" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="44"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="43" t="s">
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="44"/>
-      <c r="X10" s="44"/>
-      <c r="Y10" s="44"/>
-      <c r="Z10" s="44"/>
-      <c r="AA10" s="44"/>
-      <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
-      <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
-      <c r="AH10" s="44"/>
-      <c r="AI10" s="45"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="26"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="47"/>
-      <c r="Z11" s="47"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="47"/>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="48"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
+      <c r="AD11" s="28"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="29"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
@@ -1461,11 +1461,11 @@
       <c r="AI12" s="17"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A13" s="49">
+      <c r="A13" s="30">
         <v>0</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" t="s">
         <v>13</v>
       </c>
@@ -1483,11 +1483,11 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
-      <c r="S13" s="49">
+      <c r="S13" s="30">
         <v>0</v>
       </c>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
       <c r="V13" t="s">
         <v>22</v>
       </c>
@@ -1506,11 +1506,11 @@
       <c r="AI13" s="17"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="49">
+      <c r="A14" s="30">
         <v>0</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" t="s">
         <v>9</v>
       </c>
@@ -1528,11 +1528,11 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
-      <c r="S14" s="49">
+      <c r="S14" s="30">
         <v>0</v>
       </c>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
       <c r="V14" t="s">
         <v>23</v>
       </c>
@@ -1551,11 +1551,11 @@
       <c r="AI14" s="17"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A15" s="49">
+      <c r="A15" s="30">
         <v>0</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
       <c r="D15" t="s">
         <v>10</v>
       </c>
@@ -1573,11 +1573,11 @@
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
-      <c r="S15" s="49">
+      <c r="S15" s="30">
         <v>0</v>
       </c>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
       <c r="V15" t="s">
         <v>24</v>
       </c>
@@ -1596,11 +1596,11 @@
       <c r="AI15" s="17"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A16" s="49">
+      <c r="A16" s="30">
         <v>0</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
       <c r="D16" t="s">
         <v>11</v>
       </c>
@@ -1618,11 +1618,11 @@
       <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
-      <c r="S16" s="49">
+      <c r="S16" s="30">
         <v>0</v>
       </c>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
+      <c r="T16" s="31"/>
+      <c r="U16" s="31"/>
       <c r="V16" t="s">
         <v>25</v>
       </c>
@@ -1641,11 +1641,11 @@
       <c r="AI16" s="17"/>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
+      <c r="A17" s="30">
         <v>0</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
       <c r="D17" t="s">
         <v>12</v>
       </c>
@@ -1682,11 +1682,11 @@
       <c r="AI17" s="17"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="30">
         <v>0</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" t="s">
         <v>14</v>
       </c>
@@ -1760,86 +1760,86 @@
       <c r="AI19" s="17"/>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="43" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="43" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="43" t="s">
+      <c r="T20" s="25"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="44"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="44"/>
-      <c r="AI20" s="45"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="26"/>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="46"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="48"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="28"/>
+      <c r="AD21" s="28"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="29"/>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
@@ -1879,11 +1879,11 @@
       <c r="AI22" s="17"/>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A23" s="49">
+      <c r="A23" s="30">
         <v>0</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" t="s">
         <v>16</v>
       </c>
@@ -1901,11 +1901,11 @@
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="17"/>
-      <c r="S23" s="49">
+      <c r="S23" s="30">
         <v>0</v>
       </c>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
       <c r="V23" t="s">
         <v>27</v>
       </c>
@@ -1924,11 +1924,11 @@
       <c r="AI23" s="17"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="49">
+      <c r="A24" s="30">
         <v>0</v>
       </c>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" t="s">
         <v>17</v>
       </c>
@@ -1946,11 +1946,11 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
       <c r="R24" s="17"/>
-      <c r="S24" s="49">
+      <c r="S24" s="30">
         <v>0</v>
       </c>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="31"/>
       <c r="V24" s="21" t="s">
         <v>28</v>
       </c>
@@ -1969,11 +1969,11 @@
       <c r="AI24" s="17"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A25" s="49">
+      <c r="A25" s="30">
         <v>0</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" t="s">
         <v>18</v>
       </c>
@@ -1991,11 +1991,11 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
       <c r="R25" s="17"/>
-      <c r="S25" s="49">
+      <c r="S25" s="30">
         <v>0</v>
       </c>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
+      <c r="T25" s="31"/>
+      <c r="U25" s="31"/>
       <c r="V25" t="s">
         <v>31</v>
       </c>
@@ -2014,11 +2014,11 @@
       <c r="AI25" s="17"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="30">
         <v>0</v>
       </c>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" t="s">
         <v>20</v>
       </c>
@@ -2036,11 +2036,11 @@
       <c r="P26" s="16"/>
       <c r="Q26" s="16"/>
       <c r="R26" s="17"/>
-      <c r="S26" s="49">
+      <c r="S26" s="30">
         <v>0</v>
       </c>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
+      <c r="T26" s="31"/>
+      <c r="U26" s="31"/>
       <c r="V26" t="s">
         <v>29</v>
       </c>
@@ -2059,11 +2059,11 @@
       <c r="AI26" s="17"/>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="30">
         <v>0</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" t="s">
         <v>19</v>
       </c>
@@ -2081,11 +2081,11 @@
       <c r="P27" s="16"/>
       <c r="Q27" s="16"/>
       <c r="R27" s="17"/>
-      <c r="S27" s="49">
+      <c r="S27" s="30">
         <v>0</v>
       </c>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="31"/>
       <c r="V27" t="s">
         <v>30</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.25">
@@ -2260,7 +2260,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
       <c r="D39" s="10"/>
       <c r="E39" s="11"/>
       <c r="F39" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="22" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
@@ -2336,7 +2336,7 @@
       <c r="D44" s="10"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
@@ -2355,154 +2355,154 @@
       <c r="E47" s="10"/>
     </row>
     <row r="48" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="24"/>
-      <c r="AA48" s="24"/>
-      <c r="AB48" s="24"/>
-      <c r="AC48" s="24"/>
-      <c r="AD48" s="24"/>
-      <c r="AE48" s="24"/>
-      <c r="AF48" s="24"/>
-      <c r="AG48" s="24"/>
-      <c r="AH48" s="24"/>
-      <c r="AI48" s="24"/>
+      <c r="A48" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="24"/>
-      <c r="AA49" s="24"/>
-      <c r="AB49" s="24"/>
-      <c r="AC49" s="24"/>
-      <c r="AD49" s="24"/>
-      <c r="AE49" s="24"/>
-      <c r="AF49" s="24"/>
-      <c r="AG49" s="24"/>
-      <c r="AH49" s="24"/>
-      <c r="AI49" s="24"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="24"/>
-      <c r="AA50" s="24"/>
-      <c r="AB50" s="24"/>
-      <c r="AC50" s="24"/>
-      <c r="AD50" s="24"/>
-      <c r="AE50" s="24"/>
-      <c r="AF50" s="24"/>
-      <c r="AG50" s="24"/>
-      <c r="AH50" s="24"/>
-      <c r="AI50" s="24"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="32"/>
     </row>
     <row r="51" spans="1:35" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="24"/>
-      <c r="AA51" s="24"/>
-      <c r="AB51" s="24"/>
-      <c r="AC51" s="24"/>
-      <c r="AD51" s="24"/>
-      <c r="AE51" s="24"/>
-      <c r="AF51" s="24"/>
-      <c r="AG51" s="24"/>
-      <c r="AH51" s="24"/>
-      <c r="AI51" s="24"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="Q51" s="32"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
@@ -2516,24 +2516,6 @@
     <sortCondition ref="V23"/>
   </sortState>
   <mergeCells count="34">
-    <mergeCell ref="V20:AI21"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="S20:U21"/>
     <mergeCell ref="A48:AI51"/>
     <mergeCell ref="Y1:AI1"/>
     <mergeCell ref="Y2:AI5"/>
@@ -2550,6 +2532,24 @@
     <mergeCell ref="A10:C11"/>
     <mergeCell ref="D10:R11"/>
     <mergeCell ref="S10:U11"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="S20:U21"/>
+    <mergeCell ref="V20:AI21"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="S25:U25"/>
   </mergeCells>
   <conditionalFormatting sqref="A13:A18">
     <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
